--- a/biology/Médecine/Wilhelm_Ebstein/Wilhelm_Ebstein.xlsx
+++ b/biology/Médecine/Wilhelm_Ebstein/Wilhelm_Ebstein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilhelm Ebstein, né le 27 novembre 1836 à Jauer, en Silésie et mort le 22 décembre 1912 à Göttingen, est un médecin et scientifique juif allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilhelm Ebstein est issu d'une famille juive allemande de Basse-Silésie appartenant à la classe moyenne supérieure. Il fait ses études de médecine à l'université de Breslau et à celle de Berlin. Parmi ses professeurs figurent Friedrich Theodor von Frerichs à Breslau et Rudolf Virchow et Moritz Heinrich Romberg à Berlin.
 En 1859, il obtient son doctorat en 1859 à Berlin et exerce à partir de 1861 à l'hôpital Allerheiligen-Hospital de Breslau. En 1869, il est reçu à l'agrégation 1869  et se voit proposer en 1874 le poste de professeur titulaire de médecine interne à l'université de Göttingen (où il prend la succession de Karl Ewald Hasse (de) (1810-1902)). Avec une grande énergie et beaucoup de détermination, il se consacre à l'enseignement universitaire, à la recherche, et à l'expansion de la clinique. Sous son mandat est construit le nouveau département de médecine de l'avenue Humboldt. En 1906, il est nommé professeur émérite. Son fils Erich Ebstein (de), également médecin mais aussi collectionneur bibliophile et écrivain, est à ce titre un ami d'Erich Mühsam.
@@ -545,7 +559,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ebstein a laissé son nom à plusieurs syndromes ou anomalies :
 Anomalie d'Ebstein : malformation rare de la valve tricuspide
@@ -579,7 +595,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>De mutationibus cocti crudique amyli fluifo oris tractati. Dissertation, Berlin, 1859.
 Die Recidive des Typhus. Habilitationsschrift. Breslau, 1869.
